--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Microalbuminuria.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.64259083883635</v>
+        <v>12.64940783451405</v>
       </c>
       <c r="B2" t="n">
-        <v>8.872803733179401</v>
+        <v>8.87297407047606</v>
       </c>
       <c r="C2" t="n">
-        <v>17.30529235219911</v>
+        <v>17.29567131579251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.16075308857965</v>
+        <v>17.19315151055925</v>
       </c>
       <c r="B3" t="n">
-        <v>14.88407916266061</v>
+        <v>14.92123702245383</v>
       </c>
       <c r="C3" t="n">
-        <v>19.83589660982966</v>
+        <v>19.84787293183696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16.43858033131754</v>
+        <v>16.40468380250744</v>
       </c>
       <c r="B4" t="n">
-        <v>14.24830285577699</v>
+        <v>14.19063040052704</v>
       </c>
       <c r="C4" t="n">
-        <v>18.84575021968553</v>
+        <v>18.79029149418443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.65085804053161</v>
+        <v>20.59049357227114</v>
       </c>
       <c r="B5" t="n">
-        <v>18.10930929387867</v>
+        <v>18.12573770777175</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5454341205436</v>
+        <v>23.46395483281349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18.47509154603108</v>
+        <v>18.56608644165994</v>
       </c>
       <c r="B6" t="n">
-        <v>14.82743569308599</v>
+        <v>14.88052166590214</v>
       </c>
       <c r="C6" t="n">
-        <v>22.65719538272615</v>
+        <v>22.53952347035616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.93605138636925</v>
+        <v>11.90957674751932</v>
       </c>
       <c r="B7" t="n">
-        <v>8.568812748640664</v>
+        <v>8.52424745309159</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39178859006926</v>
+        <v>15.22585451409978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.469010359491546</v>
+        <v>4.471452986184406</v>
       </c>
       <c r="B8" t="n">
-        <v>3.01443052394424</v>
+        <v>3.036840082564717</v>
       </c>
       <c r="C8" t="n">
-        <v>6.422316748629105</v>
+        <v>6.449868774724746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.39987549188367</v>
+        <v>17.40796613991894</v>
       </c>
       <c r="B9" t="n">
-        <v>14.15778690987681</v>
+        <v>14.12443497733679</v>
       </c>
       <c r="C9" t="n">
-        <v>20.75443096981947</v>
+        <v>20.66393268986968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.582779390437032</v>
+        <v>4.567717066225484</v>
       </c>
       <c r="B10" t="n">
-        <v>3.102202266500577</v>
+        <v>3.095320806278899</v>
       </c>
       <c r="C10" t="n">
-        <v>6.544518563605676</v>
+        <v>6.465860688471674</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.00758929893002</v>
+        <v>10.0773205646123</v>
       </c>
       <c r="B11" t="n">
-        <v>6.791487866733806</v>
+        <v>6.879555347414891</v>
       </c>
       <c r="C11" t="n">
-        <v>14.28525912082848</v>
+        <v>14.22188615504995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.76328770003058</v>
+        <v>16.7482139881463</v>
       </c>
       <c r="B12" t="n">
-        <v>12.32167379536961</v>
+        <v>12.39234942823371</v>
       </c>
       <c r="C12" t="n">
-        <v>21.71283925375038</v>
+        <v>21.58082079057044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.95804775872817</v>
+        <v>5.982724749644271</v>
       </c>
       <c r="B13" t="n">
-        <v>4.009559324950934</v>
+        <v>4.027506516640751</v>
       </c>
       <c r="C13" t="n">
-        <v>8.841421579797197</v>
+        <v>8.82734072010642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.771852415930534</v>
+        <v>7.79781817630193</v>
       </c>
       <c r="B14" t="n">
-        <v>5.32273550074285</v>
+        <v>5.332840851722391</v>
       </c>
       <c r="C14" t="n">
-        <v>11.16830655814252</v>
+        <v>11.27576955096275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23.83765983935126</v>
+        <v>23.85436960248326</v>
       </c>
       <c r="B15" t="n">
-        <v>20.53697856159996</v>
+        <v>20.55963034384466</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4648328576625</v>
+        <v>27.52005792061857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18.46469756270005</v>
+        <v>18.53168151387659</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8100150457448</v>
+        <v>14.85823739067681</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6525208715753</v>
+        <v>22.50305600824254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.77420339486439</v>
+        <v>16.65670924536424</v>
       </c>
       <c r="B17" t="n">
-        <v>12.18760951924888</v>
+        <v>12.34287376234699</v>
       </c>
       <c r="C17" t="n">
-        <v>21.89964128663296</v>
+        <v>21.93816666016205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.4219050116581</v>
+        <v>16.40454908286583</v>
       </c>
       <c r="B18" t="n">
-        <v>14.24194848654911</v>
+        <v>14.19041250559461</v>
       </c>
       <c r="C18" t="n">
-        <v>18.82093725752829</v>
+        <v>18.78062833932014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.13794702849526</v>
+        <v>10.15601724297252</v>
       </c>
       <c r="B19" t="n">
-        <v>6.860202905144315</v>
+        <v>6.884926687264382</v>
       </c>
       <c r="C19" t="n">
-        <v>14.28286524137325</v>
+        <v>14.36805766056095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.2772901460567</v>
+        <v>20.31342931758741</v>
       </c>
       <c r="B20" t="n">
-        <v>16.22830716014217</v>
+        <v>16.18180761712782</v>
       </c>
       <c r="C20" t="n">
-        <v>24.76751160315494</v>
+        <v>24.70901019378979</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.15043187557629</v>
+        <v>22.22579780040033</v>
       </c>
       <c r="B21" t="n">
-        <v>18.61044865331706</v>
+        <v>18.72548215087375</v>
       </c>
       <c r="C21" t="n">
-        <v>26.17161348836317</v>
+        <v>26.31252602149752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.596350196400655</v>
+        <v>4.553263822298934</v>
       </c>
       <c r="B22" t="n">
-        <v>3.057044490781447</v>
+        <v>3.047934610514206</v>
       </c>
       <c r="C22" t="n">
-        <v>6.698551042235446</v>
+        <v>6.649768317838993</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.41067582691829</v>
+        <v>25.39769808955764</v>
       </c>
       <c r="B23" t="n">
-        <v>22.307969764664</v>
+        <v>22.08482759129611</v>
       </c>
       <c r="C23" t="n">
-        <v>28.60732899963218</v>
+        <v>28.90981938291566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.47068415972966</v>
+        <v>18.54574366160662</v>
       </c>
       <c r="B24" t="n">
-        <v>14.99383058245565</v>
+        <v>14.90207883911431</v>
       </c>
       <c r="C24" t="n">
-        <v>22.74510181713786</v>
+        <v>22.54413709699854</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.297781296074</v>
+        <v>16.27699509538217</v>
       </c>
       <c r="B25" t="n">
-        <v>13.40486123045467</v>
+        <v>13.43317746658813</v>
       </c>
       <c r="C25" t="n">
-        <v>19.29824909022858</v>
+        <v>19.17668112580869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.18649807459069</v>
+        <v>22.1785222975604</v>
       </c>
       <c r="B26" t="n">
-        <v>18.27592188556392</v>
+        <v>18.21181979216581</v>
       </c>
       <c r="C26" t="n">
-        <v>26.03139402550547</v>
+        <v>25.9904949834773</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.984954426101033</v>
+        <v>5.989387198237481</v>
       </c>
       <c r="B27" t="n">
-        <v>4.014540104400423</v>
+        <v>4.028508269157857</v>
       </c>
       <c r="C27" t="n">
-        <v>8.710101547377731</v>
+        <v>8.568317858732545</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.53947902767277</v>
+        <v>12.52024249894082</v>
       </c>
       <c r="B28" t="n">
-        <v>8.696214447285593</v>
+        <v>8.777523670029485</v>
       </c>
       <c r="C28" t="n">
-        <v>16.44492530907297</v>
+        <v>16.40637402907041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26.57702843945276</v>
+        <v>26.62090122180022</v>
       </c>
       <c r="B29" t="n">
-        <v>23.04145042070363</v>
+        <v>22.96864924919585</v>
       </c>
       <c r="C29" t="n">
-        <v>30.67341693235254</v>
+        <v>30.66479253171784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16.30870586469251</v>
+        <v>16.31043172970823</v>
       </c>
       <c r="B30" t="n">
-        <v>11.91539984548453</v>
+        <v>11.92898266880038</v>
       </c>
       <c r="C30" t="n">
-        <v>21.32594795065797</v>
+        <v>21.42662595570505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.73579316822079</v>
+        <v>7.740145351549794</v>
       </c>
       <c r="B31" t="n">
-        <v>4.97394178407648</v>
+        <v>4.958795120029158</v>
       </c>
       <c r="C31" t="n">
-        <v>11.1428887446725</v>
+        <v>11.22566776381867</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.938542766401484</v>
+        <v>5.934681732754369</v>
       </c>
       <c r="B32" t="n">
-        <v>4.11021236704882</v>
+        <v>4.197305479281908</v>
       </c>
       <c r="C32" t="n">
-        <v>8.416953554971457</v>
+        <v>8.356643188052139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.783354590060367</v>
+        <v>7.799629219495676</v>
       </c>
       <c r="B33" t="n">
-        <v>5.338318919162948</v>
+        <v>5.345165361350537</v>
       </c>
       <c r="C33" t="n">
-        <v>11.19501745708524</v>
+        <v>11.2436967957312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13.35791957864626</v>
+        <v>13.35897716803587</v>
       </c>
       <c r="B34" t="n">
-        <v>9.325276687268303</v>
+        <v>9.196031523773636</v>
       </c>
       <c r="C34" t="n">
-        <v>18.21973440860189</v>
+        <v>18.29699223619431</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19.49364833529718</v>
+        <v>19.46052718701372</v>
       </c>
       <c r="B35" t="n">
-        <v>15.37493381116544</v>
+        <v>15.36001043294635</v>
       </c>
       <c r="C35" t="n">
-        <v>24.0446218591937</v>
+        <v>24.02461989563266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.95206579243946</v>
+        <v>11.92069088647269</v>
       </c>
       <c r="B36" t="n">
-        <v>8.314580269583486</v>
+        <v>8.439963927105936</v>
       </c>
       <c r="C36" t="n">
-        <v>15.41265975078796</v>
+        <v>15.29958730713738</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.48357961993386</v>
+        <v>23.62083559825562</v>
       </c>
       <c r="B37" t="n">
-        <v>19.70451924025952</v>
+        <v>19.66148300918483</v>
       </c>
       <c r="C37" t="n">
-        <v>27.20254422504674</v>
+        <v>27.62014361995718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.749021841091121</v>
+        <v>7.74345236260048</v>
       </c>
       <c r="B38" t="n">
-        <v>5.19738992389292</v>
+        <v>5.245360899099869</v>
       </c>
       <c r="C38" t="n">
-        <v>11.21897355208083</v>
+        <v>11.142886998095</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16.90054195894031</v>
+        <v>16.95146631264759</v>
       </c>
       <c r="B39" t="n">
-        <v>12.08879502992946</v>
+        <v>12.0042119145889</v>
       </c>
       <c r="C39" t="n">
-        <v>22.48377335336368</v>
+        <v>22.62356814905452</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19.46461689966725</v>
+        <v>19.45788449061237</v>
       </c>
       <c r="B40" t="n">
-        <v>16.47705008861725</v>
+        <v>16.42130254448788</v>
       </c>
       <c r="C40" t="n">
-        <v>22.44927636066292</v>
+        <v>22.80708777984024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.33987175547961</v>
+        <v>11.33709018521082</v>
       </c>
       <c r="B41" t="n">
-        <v>8.275819087241043</v>
+        <v>8.255474286292674</v>
       </c>
       <c r="C41" t="n">
-        <v>14.79835235887474</v>
+        <v>14.82440071664059</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.17651623461875</v>
+        <v>10.17515734920535</v>
       </c>
       <c r="B42" t="n">
-        <v>6.871818405508456</v>
+        <v>6.907178955328532</v>
       </c>
       <c r="C42" t="n">
-        <v>14.68376510235846</v>
+        <v>14.71995117391737</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16.30870586469251</v>
+        <v>16.30390812015601</v>
       </c>
       <c r="B43" t="n">
-        <v>11.84617190951149</v>
+        <v>11.91673110100223</v>
       </c>
       <c r="C43" t="n">
-        <v>21.28156058579498</v>
+        <v>21.4098409141159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.365381439898325</v>
+        <v>9.408510479868228</v>
       </c>
       <c r="B44" t="n">
-        <v>6.892248426022191</v>
+        <v>6.651938744917373</v>
       </c>
       <c r="C44" t="n">
-        <v>12.6564412890068</v>
+        <v>12.66739987031373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.12480657114341</v>
+        <v>10.15681294786328</v>
       </c>
       <c r="B45" t="n">
-        <v>6.844011683753543</v>
+        <v>6.8839642811343</v>
       </c>
       <c r="C45" t="n">
-        <v>14.68503268521011</v>
+        <v>14.77859627329835</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.486672787022051</v>
+        <v>7.405950356889289</v>
       </c>
       <c r="B46" t="n">
-        <v>5.061615369912889</v>
+        <v>5.072076515531126</v>
       </c>
       <c r="C46" t="n">
-        <v>10.44119801879862</v>
+        <v>10.43364252143276</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.64347483511663</v>
+        <v>4.664981953953927</v>
       </c>
       <c r="B47" t="n">
-        <v>3.119253802393243</v>
+        <v>3.158881516763826</v>
       </c>
       <c r="C47" t="n">
-        <v>6.843058768075235</v>
+        <v>6.903308379129665</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16.841195258482</v>
+        <v>16.75062969232651</v>
       </c>
       <c r="B48" t="n">
-        <v>12.25729431687245</v>
+        <v>12.36071918295833</v>
       </c>
       <c r="C48" t="n">
-        <v>21.81678297589895</v>
+        <v>21.64130689429964</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18.00362590330627</v>
+        <v>17.93898590554933</v>
       </c>
       <c r="B49" t="n">
-        <v>15.79347306505504</v>
+        <v>15.64973527648579</v>
       </c>
       <c r="C49" t="n">
-        <v>20.75956319360228</v>
+        <v>20.91905683695518</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23.43392083861518</v>
+        <v>23.58173296197513</v>
       </c>
       <c r="B50" t="n">
-        <v>19.57882744557432</v>
+        <v>19.64000787398198</v>
       </c>
       <c r="C50" t="n">
-        <v>27.21944391379021</v>
+        <v>27.56957439655841</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17.18576921413894</v>
+        <v>17.20155061189376</v>
       </c>
       <c r="B51" t="n">
-        <v>14.91236363244012</v>
+        <v>14.94101446170502</v>
       </c>
       <c r="C51" t="n">
-        <v>19.85712993068913</v>
+        <v>19.84810179302152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.467717178588251</v>
+        <v>7.527480999789885</v>
       </c>
       <c r="B52" t="n">
-        <v>5.24308831875091</v>
+        <v>5.219016847866532</v>
       </c>
       <c r="C52" t="n">
-        <v>10.60998458992488</v>
+        <v>10.60073036612178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17.0374101208399</v>
+        <v>17.10149693854164</v>
       </c>
       <c r="B53" t="n">
-        <v>12.16031807370226</v>
+        <v>12.16549140195028</v>
       </c>
       <c r="C53" t="n">
-        <v>22.67941361850075</v>
+        <v>22.92415815216181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23.84911088479209</v>
+        <v>23.81801380284467</v>
       </c>
       <c r="B54" t="n">
-        <v>20.51628586991848</v>
+        <v>20.49509015518096</v>
       </c>
       <c r="C54" t="n">
-        <v>27.48519434810472</v>
+        <v>27.47115933393028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22.13979580248963</v>
+        <v>22.13670902297333</v>
       </c>
       <c r="B55" t="n">
-        <v>18.35976613574368</v>
+        <v>18.44514470164806</v>
       </c>
       <c r="C55" t="n">
-        <v>26.04072596087581</v>
+        <v>26.18413786734458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.763193682239805</v>
+        <v>7.733572815701888</v>
       </c>
       <c r="B56" t="n">
-        <v>5.269759489034143</v>
+        <v>5.315034682462072</v>
       </c>
       <c r="C56" t="n">
-        <v>10.91703250719585</v>
+        <v>10.81714562733303</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.944905710356995</v>
+        <v>5.943388721477787</v>
       </c>
       <c r="B57" t="n">
-        <v>4.093324239584833</v>
+        <v>4.161115548954537</v>
       </c>
       <c r="C57" t="n">
-        <v>8.481341578914986</v>
+        <v>8.438714688947147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.46915662392839</v>
+        <v>23.55908009918106</v>
       </c>
       <c r="B58" t="n">
-        <v>19.7919207015314</v>
+        <v>19.78990904115806</v>
       </c>
       <c r="C58" t="n">
-        <v>27.18444771066885</v>
+        <v>27.70514728553471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.938273905413034</v>
+        <v>9.871728264364299</v>
       </c>
       <c r="B59" t="n">
-        <v>6.787485096310002</v>
+        <v>6.892176035494385</v>
       </c>
       <c r="C59" t="n">
-        <v>13.35724194794064</v>
+        <v>13.31583743143451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>25.5088676203233</v>
+        <v>25.60979680933319</v>
       </c>
       <c r="B60" t="n">
-        <v>22.47443494086568</v>
+        <v>22.33262181890576</v>
       </c>
       <c r="C60" t="n">
-        <v>28.7128497293898</v>
+        <v>29.22139610134668</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.786529180345034</v>
+        <v>7.810652012461661</v>
       </c>
       <c r="B61" t="n">
-        <v>5.341610826391335</v>
+        <v>5.382070967492516</v>
       </c>
       <c r="C61" t="n">
-        <v>11.2450126980134</v>
+        <v>11.24357696266625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.03538107537522</v>
+        <v>10.11906916637217</v>
       </c>
       <c r="B62" t="n">
-        <v>6.777916560119099</v>
+        <v>6.862944873195753</v>
       </c>
       <c r="C62" t="n">
-        <v>14.62104834225946</v>
+        <v>14.5711477763813</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.736589832338536</v>
+        <v>7.748072975526186</v>
       </c>
       <c r="B63" t="n">
-        <v>5.191654805420524</v>
+        <v>5.180294017335905</v>
       </c>
       <c r="C63" t="n">
-        <v>11.4276524386334</v>
+        <v>11.38775252071242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>25.52643343410396</v>
+        <v>25.56199190842872</v>
       </c>
       <c r="B64" t="n">
-        <v>22.38650157510079</v>
+        <v>22.23061743245779</v>
       </c>
       <c r="C64" t="n">
-        <v>28.72913122912385</v>
+        <v>29.18062854621577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.815961707851921</v>
+        <v>5.827008028310416</v>
       </c>
       <c r="B65" t="n">
-        <v>3.950655437586436</v>
+        <v>4.004718507272139</v>
       </c>
       <c r="C65" t="n">
-        <v>8.185171683886614</v>
+        <v>8.172336498434502</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13.17890015184211</v>
+        <v>13.21261337999587</v>
       </c>
       <c r="B66" t="n">
-        <v>9.161260211492733</v>
+        <v>9.308045050200583</v>
       </c>
       <c r="C66" t="n">
-        <v>17.80795196329327</v>
+        <v>17.75406229718666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12.99881639146523</v>
+        <v>13.03461264572013</v>
       </c>
       <c r="B67" t="n">
-        <v>8.99823201158298</v>
+        <v>9.085399235147825</v>
       </c>
       <c r="C67" t="n">
-        <v>17.99613909347651</v>
+        <v>18.01442426948678</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20.6687502456073</v>
+        <v>20.70239789602343</v>
       </c>
       <c r="B68" t="n">
-        <v>17.38389167063738</v>
+        <v>17.24350766228922</v>
       </c>
       <c r="C68" t="n">
-        <v>24.15874975277465</v>
+        <v>23.96907991885501</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.612968294199061</v>
+        <v>4.603576291968313</v>
       </c>
       <c r="B69" t="n">
-        <v>3.134625410716655</v>
+        <v>3.123438717600944</v>
       </c>
       <c r="C69" t="n">
-        <v>6.815788068593934</v>
+        <v>6.824201659949625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>19.45130797640308</v>
+        <v>19.42701880176686</v>
       </c>
       <c r="B70" t="n">
-        <v>16.48080527754793</v>
+        <v>16.44403753869875</v>
       </c>
       <c r="C70" t="n">
-        <v>22.38720654997448</v>
+        <v>22.45681371855858</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13.42067142876712</v>
+        <v>13.408320975414</v>
       </c>
       <c r="B71" t="n">
-        <v>10.53345803497382</v>
+        <v>10.50403286481913</v>
       </c>
       <c r="C71" t="n">
-        <v>16.17287667594611</v>
+        <v>16.19671092016774</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14.98352575491754</v>
+        <v>14.9633103098299</v>
       </c>
       <c r="B72" t="n">
-        <v>11.34783607355279</v>
+        <v>11.28332997872225</v>
       </c>
       <c r="C72" t="n">
-        <v>18.67172309503091</v>
+        <v>18.70112265538329</v>
       </c>
     </row>
   </sheetData>
